--- a/src/main/resources/map/map.xlsx
+++ b/src/main/resources/map/map.xlsx
@@ -27,10 +27,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -41,9 +41,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -57,67 +57,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,17 +78,77 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,9 +162,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,10 +178,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -194,19 +194,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -218,7 +224,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -230,7 +242,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -242,43 +260,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,67 +326,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,13 +344,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,17 +468,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,17 +545,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,145 +570,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1112,7 +1112,7 @@
   <dimension ref="A1:BD28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="AN20" sqref="AN20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="23" customHeight="1"/>
@@ -1718,112 +1718,112 @@
         <v>2</v>
       </c>
       <c r="Q8" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R8" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S8" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T8" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U8" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V8" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W8" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X8" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y8" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z8" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA8" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB8" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC8" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD8" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE8" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF8" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG8" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH8" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI8" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ8" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK8" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL8" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM8" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN8" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO8" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP8" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ8" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR8" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS8" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT8" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU8" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV8" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW8" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX8" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY8" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ8" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA8" s="5">
         <v>3</v>
@@ -1863,7 +1863,9 @@
       <c r="Z9" s="8"/>
       <c r="AA9" s="9"/>
       <c r="AB9" s="7"/>
-      <c r="AC9" s="8"/>
+      <c r="AC9" s="8">
+        <v>1</v>
+      </c>
       <c r="AD9" s="9"/>
       <c r="AE9" s="7"/>
       <c r="AF9" s="8"/>
@@ -1925,7 +1927,9 @@
       <c r="Z10" s="2"/>
       <c r="AA10" s="3"/>
       <c r="AB10" s="1"/>
-      <c r="AC10" s="2"/>
+      <c r="AC10" s="2">
+        <v>1</v>
+      </c>
       <c r="AD10" s="3"/>
       <c r="AE10" s="1"/>
       <c r="AF10" s="2"/>
@@ -1987,7 +1991,9 @@
       <c r="Z11" s="5"/>
       <c r="AA11" s="6"/>
       <c r="AB11" s="4"/>
-      <c r="AC11" s="5"/>
+      <c r="AC11" s="5">
+        <v>1</v>
+      </c>
       <c r="AD11" s="6"/>
       <c r="AE11" s="4"/>
       <c r="AF11" s="5"/>
@@ -2049,7 +2055,9 @@
       <c r="Z12" s="8"/>
       <c r="AA12" s="9"/>
       <c r="AB12" s="7"/>
-      <c r="AC12" s="8"/>
+      <c r="AC12" s="8">
+        <v>1</v>
+      </c>
       <c r="AD12" s="9"/>
       <c r="AE12" s="7"/>
       <c r="AF12" s="8"/>
@@ -2111,7 +2119,9 @@
       <c r="Z13" s="2"/>
       <c r="AA13" s="3"/>
       <c r="AB13" s="1"/>
-      <c r="AC13" s="2"/>
+      <c r="AC13" s="2">
+        <v>1</v>
+      </c>
       <c r="AD13" s="3"/>
       <c r="AE13" s="1"/>
       <c r="AF13" s="2"/>
@@ -2183,32 +2193,84 @@
       <c r="Z14" s="5">
         <v>1</v>
       </c>
-      <c r="AA14" s="6"/>
-      <c r="AB14" s="4"/>
-      <c r="AC14" s="5"/>
-      <c r="AD14" s="6"/>
-      <c r="AE14" s="4"/>
-      <c r="AF14" s="5"/>
-      <c r="AG14" s="6"/>
-      <c r="AH14" s="4"/>
-      <c r="AI14" s="5"/>
-      <c r="AJ14" s="6"/>
-      <c r="AK14" s="4"/>
-      <c r="AL14" s="5"/>
-      <c r="AM14" s="6"/>
-      <c r="AN14" s="4"/>
-      <c r="AO14" s="5"/>
-      <c r="AP14" s="6"/>
-      <c r="AQ14" s="4"/>
-      <c r="AR14" s="5"/>
-      <c r="AS14" s="6"/>
-      <c r="AT14" s="4"/>
-      <c r="AU14" s="5"/>
-      <c r="AV14" s="6"/>
-      <c r="AW14" s="4"/>
-      <c r="AX14" s="5"/>
-      <c r="AY14" s="6"/>
-      <c r="AZ14" s="4"/>
+      <c r="AA14" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD14" s="6">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF14" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG14" s="6">
+        <v>1</v>
+      </c>
+      <c r="AH14" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI14" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ14" s="6">
+        <v>1</v>
+      </c>
+      <c r="AK14" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL14" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM14" s="6">
+        <v>1</v>
+      </c>
+      <c r="AN14" s="4">
+        <v>1</v>
+      </c>
+      <c r="AO14" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP14" s="6">
+        <v>1</v>
+      </c>
+      <c r="AQ14" s="4">
+        <v>1</v>
+      </c>
+      <c r="AR14" s="5">
+        <v>1</v>
+      </c>
+      <c r="AS14" s="6">
+        <v>1</v>
+      </c>
+      <c r="AT14" s="4">
+        <v>1</v>
+      </c>
+      <c r="AU14" s="5">
+        <v>1</v>
+      </c>
+      <c r="AV14" s="6">
+        <v>1</v>
+      </c>
+      <c r="AW14" s="4">
+        <v>1</v>
+      </c>
+      <c r="AX14" s="5">
+        <v>1</v>
+      </c>
+      <c r="AY14" s="6">
+        <v>1</v>
+      </c>
+      <c r="AZ14" s="4">
+        <v>1</v>
+      </c>
       <c r="BA14" s="5">
         <v>3</v>
       </c>
@@ -2249,7 +2311,9 @@
       </c>
       <c r="AA15" s="9"/>
       <c r="AB15" s="7"/>
-      <c r="AC15" s="8"/>
+      <c r="AC15" s="8">
+        <v>1</v>
+      </c>
       <c r="AD15" s="9"/>
       <c r="AE15" s="7"/>
       <c r="AF15" s="8"/>
@@ -2313,7 +2377,9 @@
       </c>
       <c r="AA16" s="3"/>
       <c r="AB16" s="1"/>
-      <c r="AC16" s="2"/>
+      <c r="AC16" s="2">
+        <v>1</v>
+      </c>
       <c r="AD16" s="3"/>
       <c r="AE16" s="1"/>
       <c r="AF16" s="2"/>
@@ -2377,7 +2443,9 @@
       </c>
       <c r="AA17" s="6"/>
       <c r="AB17" s="4"/>
-      <c r="AC17" s="5"/>
+      <c r="AC17" s="5">
+        <v>1</v>
+      </c>
       <c r="AD17" s="6"/>
       <c r="AE17" s="4"/>
       <c r="AF17" s="5"/>
@@ -2441,7 +2509,9 @@
       </c>
       <c r="AA18" s="9"/>
       <c r="AB18" s="7"/>
-      <c r="AC18" s="8"/>
+      <c r="AC18" s="8">
+        <v>1</v>
+      </c>
       <c r="AD18" s="9"/>
       <c r="AE18" s="7"/>
       <c r="AF18" s="8"/>
@@ -2505,7 +2575,9 @@
       </c>
       <c r="AA19" s="3"/>
       <c r="AB19" s="1"/>
-      <c r="AC19" s="2"/>
+      <c r="AC19" s="2">
+        <v>1</v>
+      </c>
       <c r="AD19" s="3"/>
       <c r="AE19" s="1"/>
       <c r="AF19" s="2"/>
@@ -2560,49 +2632,101 @@
         <v>1</v>
       </c>
       <c r="U20" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V20" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W20" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X20" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y20" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z20" s="5">
-        <v>1</v>
-      </c>
-      <c r="AA20" s="6"/>
-      <c r="AB20" s="4"/>
-      <c r="AC20" s="5"/>
-      <c r="AD20" s="6"/>
-      <c r="AE20" s="4"/>
-      <c r="AF20" s="5"/>
-      <c r="AG20" s="6"/>
-      <c r="AH20" s="4"/>
-      <c r="AI20" s="5"/>
-      <c r="AJ20" s="6"/>
-      <c r="AK20" s="4"/>
-      <c r="AL20" s="5"/>
-      <c r="AM20" s="6"/>
-      <c r="AN20" s="4"/>
-      <c r="AO20" s="5"/>
-      <c r="AP20" s="6"/>
-      <c r="AQ20" s="4"/>
-      <c r="AR20" s="5"/>
-      <c r="AS20" s="6"/>
-      <c r="AT20" s="4"/>
-      <c r="AU20" s="5"/>
-      <c r="AV20" s="6"/>
-      <c r="AW20" s="4"/>
-      <c r="AX20" s="5"/>
-      <c r="AY20" s="6"/>
-      <c r="AZ20" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="AA20" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB20" s="4">
+        <v>3</v>
+      </c>
+      <c r="AC20" s="5">
+        <v>3</v>
+      </c>
+      <c r="AD20" s="6">
+        <v>3</v>
+      </c>
+      <c r="AE20" s="4">
+        <v>3</v>
+      </c>
+      <c r="AF20" s="5">
+        <v>3</v>
+      </c>
+      <c r="AG20" s="6">
+        <v>3</v>
+      </c>
+      <c r="AH20" s="4">
+        <v>3</v>
+      </c>
+      <c r="AI20" s="5">
+        <v>3</v>
+      </c>
+      <c r="AJ20" s="6">
+        <v>3</v>
+      </c>
+      <c r="AK20" s="4">
+        <v>3</v>
+      </c>
+      <c r="AL20" s="5">
+        <v>3</v>
+      </c>
+      <c r="AM20" s="6">
+        <v>3</v>
+      </c>
+      <c r="AN20" s="4">
+        <v>3</v>
+      </c>
+      <c r="AO20" s="5">
+        <v>3</v>
+      </c>
+      <c r="AP20" s="6">
+        <v>3</v>
+      </c>
+      <c r="AQ20" s="4">
+        <v>3</v>
+      </c>
+      <c r="AR20" s="5">
+        <v>3</v>
+      </c>
+      <c r="AS20" s="6">
+        <v>3</v>
+      </c>
+      <c r="AT20" s="4">
+        <v>3</v>
+      </c>
+      <c r="AU20" s="5">
+        <v>3</v>
+      </c>
+      <c r="AV20" s="6">
+        <v>3</v>
+      </c>
+      <c r="AW20" s="4">
+        <v>3</v>
+      </c>
+      <c r="AX20" s="5">
+        <v>3</v>
+      </c>
+      <c r="AY20" s="6">
+        <v>3</v>
+      </c>
+      <c r="AZ20" s="4">
+        <v>3</v>
+      </c>
       <c r="BA20" s="5">
         <v>3</v>
       </c>
@@ -3140,7 +3264,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:BA27 BB1:BB27">
+  <conditionalFormatting sqref="A1:BB27">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>3</formula>
     </cfRule>
